--- a/xlsx/Palm Pre_intext.xlsx
+++ b/xlsx/Palm Pre_intext.xlsx
@@ -29,7 +29,7 @@
     <t>以国家为序手机制造商列表</t>
   </si>
   <si>
-    <t>政策_政策_維基百科_Palm Pre</t>
+    <t>政策_政策_维基百科_Palm Pre</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Palm%E5%85%AC%E5%8F%B8</t>
@@ -47,13 +47,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%89%8B%E6%A9%9F%E8%A6%8F%E6%A0%BC</t>
   </si>
   <si>
-    <t>手機規格</t>
+    <t>手机规格</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E5%8B%95%E4%BD%9C%E6%A5%AD%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>行動作業系統</t>
+    <t>行动作业系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/WebOS</t>
@@ -65,7 +65,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E8%99%95%E7%90%86%E5%99%A8</t>
   </si>
   <si>
-    <t>中央處理器</t>
+    <t>中央处理器</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%B7%9E%E4%BB%AA%E5%99%A8</t>
@@ -95,7 +95,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E6%B1%A0</t>
   </si>
   <si>
-    <t>電池</t>
+    <t>电池</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/MAh</t>
@@ -119,7 +119,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%85%A7%E7%9B%B8%E6%89%8B%E6%A9%9F</t>
   </si>
   <si>
-    <t>照相手機</t>
+    <t>照相手机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/LED</t>
@@ -173,13 +173,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%99%BA%E6%85%A7%E5%9E%8B%E6%89%8B%E6%A9%9F</t>
   </si>
   <si>
-    <t>智慧型手機</t>
+    <t>智慧型手机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E9%BB%9E%E8%A7%B8%E6%8E%A7</t>
   </si>
   <si>
-    <t>多點觸控</t>
+    <t>多点触控</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Linux</t>
@@ -197,7 +197,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B3%E6%99%82%E9%80%9A%E8%A8%8A</t>
   </si>
   <si>
-    <t>即時通訊</t>
+    <t>即时通讯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/CNET</t>
